--- a/dataproviders/democracyworksstatedropdown.xlsx
+++ b/dataproviders/democracyworksstatedropdown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\demos\democracyworksdemo\dataproviders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ECDD78-023C-409A-816C-49181F977AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EFFD6-A24C-4112-9444-16648891C6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DE790247-32A5-40A8-8A17-8CEC5573D7C3}"/>
+    <workbookView xWindow="30645" yWindow="1290" windowWidth="22995" windowHeight="13710" activeTab="1" xr2:uid="{DE790247-32A5-40A8-8A17-8CEC5573D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="State Dropdown" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Option</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>dfafasdf</t>
+  </si>
+  <si>
+    <t>WA</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>

--- a/dataproviders/democracyworksstatedropdown.xlsx
+++ b/dataproviders/democracyworksstatedropdown.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\demos\democracyworksdemo\dataproviders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EFFD6-A24C-4112-9444-16648891C6D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD362606-92D0-401B-ADAA-6C1765662279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="1290" windowWidth="22995" windowHeight="13710" activeTab="1" xr2:uid="{DE790247-32A5-40A8-8A17-8CEC5573D7C3}"/>
+    <workbookView xWindow="4800" yWindow="1455" windowWidth="22995" windowHeight="13710" activeTab="1" xr2:uid="{DE790247-32A5-40A8-8A17-8CEC5573D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="State Dropdown" sheetId="1" r:id="rId1"/>
-    <sheet name="Address test data" sheetId="2" r:id="rId2"/>
+    <sheet name="AddressValidData" sheetId="2" r:id="rId2"/>
+    <sheet name="AddressInvalidData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Option</t>
   </si>
@@ -82,16 +83,16 @@
     <t>11215-6112</t>
   </si>
   <si>
-    <t>asdfadsf</t>
-  </si>
-  <si>
-    <t>asdfadf</t>
-  </si>
-  <si>
-    <t>dfafasdf</t>
-  </si>
-  <si>
-    <t>WA</t>
+    <t>asdfaf</t>
+  </si>
+  <si>
+    <t>sdafadsf</t>
+  </si>
+  <si>
+    <t>fasdfasd</t>
+  </si>
+  <si>
+    <t>adsfafddasf</t>
   </si>
 </sst>
 </file>
@@ -495,10 +496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF112D9-DB3D-4AB2-9626-1279EA6DE225}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,21 +545,56 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26937793-B57A-465D-8188-05955FD259B7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
